--- a/static/data/python/sample exams/Brunswick/Brunswick_exam_sample_013.xlsx
+++ b/static/data/python/sample exams/Brunswick/Brunswick_exam_sample_013.xlsx
@@ -31,327 +31,330 @@
     <t>System</t>
   </si>
   <si>
-    <t>(295004) (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER (G2.1.44) CONDUCT OF OPERATIONS Knowledge of RO duties in the control room during fuel handling, such as responding to alarms from the fuel handling area, communication with fuel handling personnel, operating systems from the control room in support of fueling operations, or supporting instrumentation (CFR: 41.10 / 43.7 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295030EK3.05) Knowledge of the reasons for the following responses or actions as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.5 / 45.6) Suppression pool makeup system(s) operation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(600000AA2.13) Ability to determine and/or interpret the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.10 / 43.5 / 45.13) Need for emergency plant shutdown </t>
-  </si>
-  <si>
-    <t>(295026EK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.8 to 41.10) Heat capacity</t>
+    <t>(700000AA2.06) Ability to determine and/or interpret the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 43.5 / 45.5 / 45.7 / 45.8) Generator frequency limitations</t>
+  </si>
+  <si>
+    <t>(295004AA1.02) Ability to operate and/or monitor the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.7 / 45.6) Systems necessary to ensure safe plant shutdown</t>
+  </si>
+  <si>
+    <t>(295030EK2.04) Knowledge of the relationship between the (EPE 7) LOW SUPPRESSION POOL WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) RHR/LPCI</t>
+  </si>
+  <si>
+    <t>(295023AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.5 / 45.6) Personnel evacuation</t>
+  </si>
+  <si>
+    <t>(295038) (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE (G2.1.18) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise logs, records, status boards, and reports (CFR: 41.10 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295003AK1.07) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER:(CFR: 41.8 to 41.10) Load sequencing</t>
+  </si>
+  <si>
+    <t>(600000AA2.05) Ability to determine and/or interpret the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.10 / 43.5 / 45.13) Ventilation alignment necessary to secure affected area</t>
+  </si>
+  <si>
+    <t>(295001AA1.09) Ability to operate and/or monitor the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.7 / 45.6) Reactor water level control system</t>
+  </si>
+  <si>
+    <t>(295019AK2.11) Knowledge of the relationship between the (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR and the following systems or components: (CFR: 41.7 / 45.8) Radwaste</t>
+  </si>
+  <si>
+    <t>(295025EK3.04) Knowledge of the reasons for the following responses or actions as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.5 / 45.6) Isolation condenser initiation (Nine Mile Point 1, Dresden)</t>
+  </si>
+  <si>
+    <t>(295005) (APE 5) MAIN TURBINE GENERATOR TRIP (G2.1.34) CONDUCT OF OPERATIONS Knowledge of RCS or balance of plant chemistry controls, including parameters measured and reasons for the control (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295031EK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.8 to 41.10) Adequate core cooling</t>
+  </si>
+  <si>
+    <t>(295006AA2.06) Ability to determine and/or interpret the following as they apply to (APE 6) SCRAM: (CFR: 41.10 / 43.5 / 45.13) Cause of reactor SCRAM</t>
+  </si>
+  <si>
+    <t>(295026EA1.07) Ability to operate and/or monitor the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.7 / 45.6) HPCS</t>
+  </si>
+  <si>
+    <t>(295024EK2.11) Knowledge of the relationship between the (EPE 1) HIGH DRYWELL PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) Drywell spray (RHR) (Mark I, II)</t>
+  </si>
+  <si>
+    <t>(295027EK3.03) Knowledge of the reasons for the following responses or actions as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.5 / 45.6) Reactor SCRAM</t>
+  </si>
+  <si>
+    <t>(295037) (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN (G2.2.3) EQUIPMENT CONTROL (Multi-unit license) Knowledge of the design, procedural, or operational differences between units (CFR: 41.5 / 41.6 / 41.7 / 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295018AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.5 / 45.6) Reactor power reduction</t>
+  </si>
+  <si>
+    <t>(295016AA2.06) Ability to determine and/or interpret the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.10 / 43.5 / 45.13) Cooldown rate</t>
   </si>
   <si>
     <t>(295021AA1.07) Ability to operate and/or monitor the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.7 / 45.6) Fuel pool cooling and cleanup</t>
   </si>
   <si>
-    <t>(295031EK2.01) Knowledge of the relationship between the (EPE 8) REACTOR LOW WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) Nuclear boiler instrumentation</t>
-  </si>
-  <si>
-    <t>(295005) (APE 5) MAIN TURBINE GENERATOR TRIP (G2.4.25) EMERGENCY PROCEDURES / PLAN Knowledge of fire protection procedures (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295016AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.5 / 45.6) Turbine trip</t>
-  </si>
-  <si>
-    <t>(295003AA2.01) Ability to determine and/or interpret the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.10 / 43.5 / 45.13) Partial or complete loss of AC power</t>
-  </si>
-  <si>
-    <t>(295019AK2.23) Knowledge of the relationship between the (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR and the following systems or components: (CFR: 41.7 / 45.8) Service water</t>
-  </si>
-  <si>
-    <t>(295038EA1.11) Ability to operate and/or monitor the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.7 / 45.6) Main and reheat steam system</t>
-  </si>
-  <si>
-    <t>(295024EK2.04) Knowledge of the relationship between the (EPE 1) HIGH DRYWELL PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) RHR/LPCI</t>
-  </si>
-  <si>
-    <t>(295037) (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN (G2.2.21) EQUIPMENT CONTROL Knowledge of pre- and post-maintenance operability requirements (CFR: 41.10 / 43.2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295025EK3.05) Knowledge of the reasons for the following responses or actions as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.5 / 45.6) RCIC operation </t>
-  </si>
-  <si>
-    <t>(700000AA2.03) Ability to determine and/or interpret the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 43.5 / 45.5 / 45.7 / 45.8) Generator current limitations</t>
-  </si>
-  <si>
-    <t>(295006AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 6) SCRAM:(CFR: 41.8 to 41.10) Shutdown margin</t>
-  </si>
-  <si>
-    <t>(295023AA1.05) Ability to operate and/or monitor the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.7 / 45.6) Fuel transfer system</t>
-  </si>
-  <si>
-    <t>(295001AK2.11) Knowledge of the relationship between the (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION and the following systems or components: (CFR: 41.7 / 45.8) REACTOR MANUAL CONTROL SYSTEM (BWR 2, 3, 4, 5)</t>
-  </si>
-  <si>
-    <t>(295018) (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) (G2.1.23) CONDUCT OF OPERATIONS Ability to perform general or normal operating procedures during any plant condition (CFR: 41.10 / 43.5 / 45.2 / 45.6)</t>
-  </si>
-  <si>
-    <t>(295027EK3.01) Knowledge of the reasons for the following responses or actions as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.5 / 45.6) Anticipated/emergency depressurization</t>
-  </si>
-  <si>
-    <t>(295035EK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 12) SECONDARY CONTAINMENT HIGH DIFFERENTIAL PRESSURE: (CFR: 41.8 to 41.10) Radiation release</t>
-  </si>
-  <si>
-    <t>(295032EA1.01) Ability to operate and/or monitor the following as they apply to (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE: (CFR: 41.7 / 45.6) Area temperature monitoring system</t>
-  </si>
-  <si>
-    <t>(295020AK2.07) Knowledge of the relationship between the (APE 20) INADVERTENT CONTAINMENT ISOLATION and the following systems or components: (CFR: 41.7 / 45.8) RCIC</t>
-  </si>
-  <si>
-    <t>(295011) (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.1.2) CONDUCT OF OPERATIONS Knowledge of operator responsibilities during any mode of plant operation (CFR: 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295034EK3.02) Knowledge of the reasons for the following responses or actions as they apply to (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION: (CFR: 41.5 / 45.6) Starting SGTS/FRVS</t>
-  </si>
-  <si>
-    <t>(295017AA2.05) Ability to determine and/or interpret the following as they apply to (APE 17) ABNORMAL OFFSITE RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Meteorological data</t>
-  </si>
-  <si>
-    <t>(209002K4.08) Knowledge of (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Automatic system initiation</t>
-  </si>
-  <si>
-    <t>(239002K3.01) Knowledge of the effect that a loss or malfunction of the (SF3 SRV) SAFETY RELIEF VALVES will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor pressure control</t>
-  </si>
-  <si>
-    <t>(262002A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) including: (CFR: 41.5 / 45.5) Lights and alarms</t>
-  </si>
-  <si>
-    <t>(215005K2.02) (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR Knowledge of electrical power supplies to the following: (CFR: 41.7) APRM channels</t>
-  </si>
-  <si>
-    <t>(259002K5.07) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM: (CFR: 41.5 / 45.3) Turbine speed control mechanisms: TDRFP</t>
-  </si>
-  <si>
-    <t>(510000A2.07) Ability to (a) predict the impacts of the following on the (SF4 SWS*) SERVICE WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.1 / 41.5 / 43.5 / 45.3 / 45.6 / 45.13) Abnormal intake water temperature</t>
-  </si>
-  <si>
-    <t>(212000A4.01) Ability to manually operate and/or monitor the (SF7 RPS) REACTOR PROTECTION SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) System actuation</t>
-  </si>
-  <si>
-    <t>(261000) (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM  (G2.4.31) EMERGENCY PROCEDURES / PLAN Knowledge of annunciator alarms, indications, or response procedures (CFR: 41.10 / 45.3)</t>
-  </si>
-  <si>
-    <t>(262001K6.02) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 AC) AC ELECTRICAL DISTRIBUTION: (CFR: 41.7 / 45.7) Offsite power</t>
-  </si>
-  <si>
-    <t>(223002A3.02) Ability to monitor automatic operation of the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF including: (CFR: 41.7 / 45.7) Valve closures</t>
-  </si>
-  <si>
-    <t>(263000K1.01) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 DC) DC ELECTRICAL DISTRIBUTION and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) AC electrical distribution</t>
-  </si>
-  <si>
-    <t>(215004K4.03) Knowledge of (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Gamma compensation</t>
-  </si>
-  <si>
-    <t>(205000K3.03) Knowledge of the effect that a loss or malfunction of the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Temperatures</t>
-  </si>
-  <si>
-    <t>(203000A1.09) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) including: (CFR: 41.5 / 45.5) Component cooling water systems</t>
-  </si>
-  <si>
-    <t>(400000K2.02) (SF8 CCS) COMPONENT COOLING WATER SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) CCW valves</t>
-  </si>
-  <si>
-    <t>(300000K5.13) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF8 IA) INSTRUMENT AIR SYSTEM: (CFR: 41.5 / 45.3) Low instrument air pressure</t>
-  </si>
-  <si>
-    <t>(215003A2.05) Ability to (a) predict the impacts of the following on the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Faulty or erratic operation of detectors/system</t>
-  </si>
-  <si>
-    <t>(209001A4.01) Ability to manually operate and/or monitor the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Core spray pump</t>
-  </si>
-  <si>
-    <t>(211000) (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM (291002K1.21) SENSORS AND DETECTORS (CFR: 41.7) (NUCLEAR INSTRUMENTATION) Effects of voltage changes on neutron detector performance</t>
-  </si>
-  <si>
-    <t>(217000K6.11) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) : (CFR: 41.7 / 45.7) High steam flow</t>
-  </si>
-  <si>
-    <t>(264000A3.06) Ability to monitor automatic operation of the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) including: (CFR: 41.7 / 45.7) Cooling water system operation</t>
-  </si>
-  <si>
-    <t>(218000K1.03) Knowledge of the physical connections and/or cause and effect relationships between the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Nuclear boiler instrumentation</t>
-  </si>
-  <si>
-    <t>(209002K4.03) Knowledge of (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Prevention of pump overheating</t>
-  </si>
-  <si>
-    <t>(239002K3.05) Knowledge of the effect that a loss or malfunction of the (SF3 SRV) SAFETY RELIEF VALVES will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Suppression pool</t>
-  </si>
-  <si>
-    <t>(262002A1.02) Ability to predict and/or monitor changes in parameters associated with operation of the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) including: (CFR: 41.5 / 45.5) Motor generator outputs</t>
-  </si>
-  <si>
-    <t>(215005K2.03) (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR Knowledge of electrical power supplies to the following: (CFR: 41.7) OPRM channels</t>
-  </si>
-  <si>
-    <t>(239001A3.05) Ability to monitor automatic operation of the (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM including: (CFR: 41.7 / 45.7) MSR drain tank level control</t>
-  </si>
-  <si>
-    <t>(510001K1.01) Knowledge of the physical connections and/or cause and effect relationships between the (SF8 CWS*) CIRCULATING WATER SYSTEM and the following systems: (CFR: 41.4 to 41.8 / 45.7 / 45.8) Condensate system</t>
-  </si>
-  <si>
-    <t>(271000K4.06) Knowledge of (SF9 OG) OFFGAS SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Decay of fission product gases</t>
-  </si>
-  <si>
-    <t>(201005K3.01) Knowledge of the effect that a loss or malfunction of the (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (BWR 6) will have on the following systems or system parameters: (CFR: 41.6 / 41.7 / 45.4 to 45.6) Control rod drive hydraulic system</t>
-  </si>
-  <si>
-    <t>(215001A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 TIP) TRAVERSING IN CORE PROBE including: (CFR: 41.5 / 45.5) Valve status (BWR 2, 3, 4, 5)</t>
-  </si>
-  <si>
-    <t>(245000K2.02) (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS Knowledge of electrical power supplies to the following: (CFR: 41.7) Lube oil pumps</t>
-  </si>
-  <si>
-    <t>(201003K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM: (CFR: 41.1-6 / 45.1-6) Hydraulics</t>
-  </si>
-  <si>
-    <t>(268000A2.05) Ability to (a) predict the impacts of the following on the (SF9 RW) RADWASTE SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Abnormal primary containment sump pump run time</t>
-  </si>
-  <si>
-    <t>(202001A4.01) Ability to manually operate and/or monitor the (SF1, SF4 RS) RECIRCULATION SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Recirculation pumps</t>
-  </si>
-  <si>
-    <t>(290001) (SF5 SC) SECONDARY CONTAINMENT (G2.1.19) CONDUCT OF OPERATIONS Ability to use available indications to evaluate system or component status (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(239003K6.10) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF9 MSVLCS) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM (BWR 4, 5, 6) : (CFR: 41.7 / 45.7) Inboard system logic failure</t>
-  </si>
-  <si>
-    <t>(G2.1.41) CONDUCT OF OPERATIONS Knowledge of the refueling process (CFR: 41.2 / 41.10 / 43.6 / 45.13)</t>
+    <t>(295007AK3.07) Knowledge of the reasons for the following responses or actions as they apply to (APE 7) HIGH REACTOR PRESSURE: (CFR: 41.5 / 45.6) Shutdown cooling system (RHR shutdown cooling mode) operation</t>
+  </si>
+  <si>
+    <t>(295011) (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.1.27) CONDUCT OF OPERATIONS Knowledge of system purpose and/or function (CFR: 41.7)</t>
+  </si>
+  <si>
+    <t>(295034EK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION: (CFR: 41.8 to 41.10) Radiation releases</t>
+  </si>
+  <si>
+    <t>(295032EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Cause of high area temperature</t>
+  </si>
+  <si>
+    <t>(295002AA1.12) Ability to operate and/or monitor the following as they apply to (APE 2) LOSS OF MAIN CONDENSER VACUUM: (CFR: 41.7 / 45.6) Condenser air removal system</t>
+  </si>
+  <si>
+    <t>(295022AK2.08) Knowledge of the relationship between the (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS and the following systems or components: (CFR: 41.7 / 45.8) Condensate system</t>
+  </si>
+  <si>
+    <t>(239002K4.01) Knowledge of (SF3 SRV) SAFETY RELIEF VALVES design features and/or interlocks that provide for the following: (CFR: 41.7) Ensures that only one or two safety/relief valves reopen following the initial portion of a reactor isolation event (low-low set logic)</t>
+  </si>
+  <si>
+    <t>(215004A3.04) Ability to monitor automatic operation of the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM including: (CFR: 41.7 / 45.7) Control rod block status</t>
+  </si>
+  <si>
+    <t>(262002K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC): (CFR: 41.5 / 45.3) Motor generator operation</t>
+  </si>
+  <si>
+    <t>(218000A4.03) Ability to manually operate and/or monitor the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) ADS logic reset</t>
+  </si>
+  <si>
+    <t>(263000A1.02) Ability to predict and/or monitor changes in parameters associated with operation of the (SF6 DC) DC ELECTRICAL DISTRIBUTION including: (CFR: 41.5 / 45.5) Lights and alarms</t>
+  </si>
+  <si>
+    <t>(211000K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM: (CFR: 41.7 / 45.7) Plant air systems</t>
+  </si>
+  <si>
+    <t>(300000A2.03) Ability to (a) predict the impacts of the following on the (SF8 IA) INSTRUMENT AIR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Low instrument air pressure</t>
+  </si>
+  <si>
+    <t>(510000K1.03) Knowledge of the physical connections and/or cause and effect relationships between the (SF4 SWS*) SERVICE WATER SYSTEM and the following systems: (CFR: 41.4 to 41.8 / 45.7 / 45.8) Circulating water system</t>
+  </si>
+  <si>
+    <t>(261000K3.04) Knowledge of the effect that a loss or malfunction of the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.6) HIGH-PRESSURE COOLANT INJECTION SYSTEM (BWR 2, 3, 4) (BWR 3, 4)</t>
+  </si>
+  <si>
+    <t>(259002K2.02) (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Feedwater coolant injection (FWCI) initiation logic</t>
+  </si>
+  <si>
+    <t>(264000) (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) (G2.2.4) EQUIPMENT CONTROL (Multi-unit license) Ability to explain the variations in control room layouts, systems, instrumentation, or procedural actions between units at a facility (CFR: 41.6 / 41.7 / 41.10 / 45.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(223002K4.03) Knowledge of (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF design features and/or interlocks that provide for the following: (CFR: 41.7) Manual initiation capability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(215003A3.01) Ability to monitor automatic operation of the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM including: (CFR: 41.7 / 45.7) Meters and recorders </t>
+  </si>
+  <si>
+    <t>(217000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) : (CFR: 41.5 / 45.3) Flow control</t>
+  </si>
+  <si>
+    <t>(205000A4.06) Ability to manually operate and/or monitor the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) in the control room: (CFR: 41.7 / 45.5 to 45.8) Reactor water level</t>
+  </si>
+  <si>
+    <t>(209002A1.02) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM including: (CFR: 41.5 / 45.5) System pressure</t>
+  </si>
+  <si>
+    <t>(400000K6.13) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF8 CCS) COMPONENT COOLING WATER SYSTEM : (CFR: 41.7 / 45.7) Fuel pool cooling and cleanup system</t>
+  </si>
+  <si>
+    <t>(203000A2.19) Ability to (a) predict the impacts of the following on the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Low suppression pool level</t>
+  </si>
+  <si>
+    <t>(212000K1.05) Knowledge of the physical connections and/or cause and effect relationships between the (SF7 RPS) REACTOR PROTECTION SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Process radiation monitoring system</t>
+  </si>
+  <si>
+    <t>(262001K3.04) Knowledge of the effect that a loss or malfunction of the (SF6 AC) AC ELECTRICAL DISTRIBUTION will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Uninterruptible power supply system</t>
+  </si>
+  <si>
+    <t>(215005K2.01) (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR Knowledge of electrical power supplies to the following: (CFR: 41.7) LPRM channels</t>
+  </si>
+  <si>
+    <t>(209001) (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM  (291004K1.06) PUMPS (CFR: 41.3) (CENTRIFUGAL) Need for net positive suction head (NPSH); effects of loss of suction</t>
+  </si>
+  <si>
+    <t>(239002K4.09) Knowledge of (SF3 SRV) SAFETY RELIEF VALVES design features and/or interlocks that provide for the following: (CFR: 41.7) Manual opening of the SRV</t>
+  </si>
+  <si>
+    <t>(215004A3.03) Ability to monitor automatic operation of the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM including: (CFR: 41.7 / 45.7) RPS status</t>
+  </si>
+  <si>
+    <t>(262002K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC): (CFR: 41.5 / 45.3) Static switch/inverter operation</t>
+  </si>
+  <si>
+    <t>(218000A4.04) Ability to manually operate and/or monitor the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) ADS inhibit</t>
+  </si>
+  <si>
+    <t>(290002K1.21) Knowledge of the physical connections and/or cause and effect relationships between the (SF4 RVI) REACTOR VESSEL INTERNALS and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Leak detection system</t>
+  </si>
+  <si>
+    <t>(233000) (SF9 FPCCU) FUEL POOL COOLING/CLEANUP (G2.4.18) EMERGENCY PROCEDURES / PLAN Knowledge of the specific bases for emergency and abnormal operating procedures (CFR: 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(202002K4.05) Knowledge of (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Limiting recirculation pump speed/loop flow mismatch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(268000A3.02) Ability to monitor automatic operation of the (SF9 RW) RADWASTE SYSTEM including: (CFR: 41.7 / 45.7) Primary/secondary containment sump pump operation </t>
+  </si>
+  <si>
+    <t>(259001K5.05) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2 FWS) FEEDWATER SYSTEM: (CFR: 41.5 / 45.3) Thermal power calculation</t>
+  </si>
+  <si>
+    <t>(226001A4.07) Ability to manually operate and/or monitor the (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE in the control room: (CFR: 41.7 / 45.5 to 45.8) Valve logic reset/bypass/override</t>
+  </si>
+  <si>
+    <t>(223001A1.13) Ability to predict and/or monitor changes in parameters associated with operation of the (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES including: (CFR: 41.5 / 45.5) System indicating light and alarms</t>
+  </si>
+  <si>
+    <t>(271000K6.11) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF9 OG) OFFGAS SYSTEM: (CFR: 41.5 / 41.7 / 45.7) Condenser vacuum</t>
+  </si>
+  <si>
+    <t>(290003A2.01) Ability to (a) predict the impacts of the following on the (SF9 CRV) CONTROL ROOM VENTILATION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Automatic initiation/reconfiguration</t>
+  </si>
+  <si>
+    <t>(201003K1.03) Knowledge of the physical connections and/or cause and effect relationships between the (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM and the following systems: (CFR: 41.1 to 41.10 / 45.1 to 45.8) RPIS (BWR 2, 3, 4, 5)</t>
+  </si>
+  <si>
+    <t>(272000K3.11) Knowledge of the effect that a loss or malfunction of the (SF7, SF9 RMS) RADIATION MONITORING SYSTEM will have on the following systems or system parameters: (CFR: 41.5 / 45.3) Standby gas treatment system</t>
   </si>
   <si>
     <t>(G2.1.36) CONDUCT OF OPERATIONS Knowledge of procedures and limitations involved in core alterations (CFR: 41.10 / 43.6 / 45.7)</t>
   </si>
   <si>
-    <t>(G2.2.17) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during power operations, such as risk assessments, work prioritization, and coordination with the transmission system operator (CFR: 41.10 / 43.5 / 45.13)</t>
+    <t>(G2.1.25) CONDUCT OF OPERATIONS Ability to interpret reference materials, such as graphs, curves, and tables (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
   </si>
   <si>
     <t>(G2.2.36) EQUIPMENT CONTROL Ability to analyze the effect of maintenance activities, such as degraded power sources, on the status of limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
   </si>
   <si>
+    <t>(G2.2.22) EQUIPMENT CONTROL Knowledge of limiting conditions for operation and safety limits (CFR: 41.5 / 43.2 / 45.2)</t>
+  </si>
+  <si>
+    <t>(G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
+  </si>
+  <si>
+    <t>(G2.4.25) EMERGENCY PROCEDURES / PLAN Knowledge of fire protection procedures (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(292004K1.16) REACTIVITY COEFFICIENTS (CFR: 41.1) Explain and describe the effect of power defect and Doppler defect on reactivity</t>
+  </si>
+  <si>
+    <t>(292008K1.15) REACTOR OPERATIONAL PHYSICS (CFR: 41.1) (HEATUP OPERATION) Describe reactor power and startup rate/period response after reaching the POAH</t>
+  </si>
+  <si>
+    <t>(292006K1.13) FISSION PRODUCT POISONS (CFR: 41.1) Plot the curve and explain the reasoning for the reactivity insertion by Xenon-135 versus time for the following: --Reactor shutdown</t>
+  </si>
+  <si>
+    <t>(293007K1.06) HEAT TRANSFER (CFR: 41.14) (HEAT EXCHANGERS) Discuss the factors that affect heat transfer rate in</t>
+  </si>
+  <si>
+    <t>(293003K1.23) STEAM (CFR: 41.14) Use saturated and superheated steam tables</t>
+  </si>
+  <si>
+    <t>(293009K1.34) CORE THERMAL LIMITS (CFR: 41.14) (PELLET-CLAD INTERACTION) Identify the possible effects of fuel densification</t>
+  </si>
+  <si>
+    <t>(700000AA2.09) Ability to determine and/or interpret the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 43.5 / 45.5 / 45.7 / 45.8) Operational status of emergency diesel generators</t>
+  </si>
+  <si>
+    <t>(295004) (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER (G2.2.44) EQUIPMENT CONTROL Ability to interpret control room indications to verify the status and operation of a system and understand how operator actions and directives affect plant and system conditions (CFR: 41.5 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295030EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Suppression pool level</t>
+  </si>
+  <si>
+    <t>(295023) (APE 23) REFUELING ACCIDENTS (G2.4.22) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing safety functions during abnormal/emergency operations (CFR: 41.7 / 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295038EA2.05) Ability to determine and/or interpret the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Emergency plan implementation</t>
+  </si>
+  <si>
+    <t>(295003) (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER (G2.2.21) EQUIPMENT CONTROL Knowledge of pre- and post-maintenance operability requirements (CFR: 41.10 / 43.2)</t>
+  </si>
+  <si>
+    <t>(600000AA2.04) Ability to determine and/or interpret the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.10 / 43.5 / 45.13) The fire\u2019s extent of potential operational damage to plant equipment</t>
+  </si>
+  <si>
+    <t>(295036EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Operability of components within the affected area</t>
+  </si>
+  <si>
+    <t>(295010) (APE 10) HIGH DRYWELL PRESSURE (G2.4.26) EMERGENCY PROCEDURES / PLAN Knowledge of facility protection requirements, including fire brigade and portable firefighting equipment usage (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295033EA2.04) Ability to determine and/or interpret the following as they apply to (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS: (CFR: 41.10 / 43.5 / 45.13) Emergency plan</t>
+  </si>
+  <si>
+    <t>(263000A2.04) Ability to (a) predict the impacts of the following on the (SF6 DC) DC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Station blackout</t>
+  </si>
+  <si>
+    <t>(211000) (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM (G2.1.19) CONDUCT OF OPERATIONS Ability to use available indications to evaluate system or component status (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(300000A2.02) Ability to (a) predict the impacts of the following on the (SF8 IA) INSTRUMENT AIR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Component cooling water system malfunction</t>
+  </si>
+  <si>
+    <t>(510000) (SF4 SWS*) SERVICE WATER SYSTEM (G2.3.6) RADIATION CONTROL Ability to approve liquid or gaseous release permits (CFR: 41.13 / 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(261000A2.14) Ability to (a) predict the impacts of the following on the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) </t>
+  </si>
+  <si>
+    <t>(290001) (SF5 SC) SECONDARY CONTAINMENT (G2.1.39) CONDUCT OF OPERATIONS Knowledge of conservative decision-making practices (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(286000A2.08) Ability to (a) predict the impacts of the following on the (SF8 FPS) FIRE PROTECTION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Failure to actuate when required</t>
+  </si>
+  <si>
+    <t>(230000) (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE (G2.2.12) EQUIPMENT CONTROL Knowledge of surveillance procedures (CFR: 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.17) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise verbal reports (CFR: 41.10 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.2) CONDUCT OF OPERATIONS Knowledge of operator responsibilities during any mode of plant operation (CFR: 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.35) EQUIPMENT CONTROL Ability to determine technical specification mode of operation (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.40) EQUIPMENT CONTROL Ability to apply technical specifications with action statements of less than or equal to 1 hour (CFR: 41.10 / 43.2 / 43.5 / 45.3)</t>
+  </si>
+  <si>
     <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
   </si>
   <si>
-    <t>(G2.4.20) EMERGENCY PROCEDURES / PLAN Knowledge of the operational implications of emergency and abnormal operating procedures warnings, cautions, and notes (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(292008K1.28) REACTOR OPERATIONAL PHYSICS (CFR: 41.1) (NORMAL REACTOR SHUTDOWN) Explain the necessity for inserting control rods in a predetermined sequence during normal shutdown</t>
-  </si>
-  <si>
-    <t>(292007K1.01) FUEL DEPLETION AND BURNABLE POISONS (CFR: 41.1) Define burnable poison and state its use in the reactor</t>
-  </si>
-  <si>
-    <t>(292002K1.11) NEUTRON LIFE CYCLE (CFR: 41.1) Define reactivity</t>
-  </si>
-  <si>
-    <t>(293010K1.03) BRITTLE FRACTURE AND VESSEL THERMAL STRESS (CFR: 41.14) Define reference temperature</t>
-  </si>
-  <si>
-    <t>(293008K1.32) THERMAL HYDRAULICS (CFR: 41.14) (CORE ORIFICING) Describe core bypass flow</t>
-  </si>
-  <si>
-    <t>(293005K1.05) THERMODYNAMIC CYCLES (CFR: 41.14) State the advantages of moisture separators/reheaters and feedwater heaters for a typical steam cycle</t>
-  </si>
-  <si>
-    <t>(295004) (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER (G2.2.25) EQUIPMENT CONTROL Knowledge of the bases in technical specifications for limiting conditions for operation and safety limits (SRO Only) (CFR: 43.2)</t>
-  </si>
-  <si>
-    <t>(295030EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Suppression pool temperature</t>
-  </si>
-  <si>
-    <t>(600000) (APE 24) PLANT FIRE ON SITE (G2.1.37) CONDUCT OF OPERATIONS Knowledge of procedures, guidelines, or limitations associated with reactivity management (CFR: 41.1 / 41.5 / 41.10 / 43.6 / 45.6)</t>
-  </si>
-  <si>
-    <t>(295026EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
-  </si>
-  <si>
-    <t>(295021) (APE 21) LOSS OF SHUTDOWN COOLING (G2.2.7) EQUIPMENT CONTROL Knowledge of the process for conducting infrequently performed tests or evolutions (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295031EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
-  </si>
-  <si>
-    <t>(295005) (APE 5) MAIN TURBINE GENERATOR TRIP (G2.2.42) EQUIPMENT CONTROL Ability to recognize system parameters that are entry-level conditions for technical specifications (CFR: 41.7 / 41.10 / 43.2 / 43.3 / 45.3)</t>
-  </si>
-  <si>
-    <t>(295013) (APE 13) HIGH SUPPRESSION POOL TEMPERATURE. (G2.1.28) CONDUCT OF OPERATIONS Knowledge of the purpose and function of major system components and controls (CFR: 41.7)</t>
-  </si>
-  <si>
-    <t>(500000EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 16) HIGH CONTAINMENT HYDROGEN CONCENTRATION: (CFR: 41.10 / 43.5 / 45.13) Hydrogen monitoring availability</t>
-  </si>
-  <si>
-    <t>(295033) (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS (G2.1.18) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise logs, records, status boards, and reports (CFR: 41.10 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(259002) (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM (G2.2.23) EQUIPMENT CONTROL Ability to track technical specification limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(510000A2.04) Ability to (a) predict the impacts of the following on the (SF4 SWS*) SERVICE WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.1 / 41.5 / 43.5 / 45.3 / 45.6 / 45.13) Pipe leakage/rupture</t>
-  </si>
-  <si>
-    <t>(212000) (SF7 RPS) REACTOR PROTECTION SYSTEM  (G2.1.35) CONDUCT OF OPERATIONS Knowledge of the fuel handling responsibilities of SROs (SRO Only) (CFR: 43.7)</t>
-  </si>
-  <si>
-    <t>(261000A2.10) Ability to (a) predict the impacts of the following on the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Low reactor water level</t>
-  </si>
-  <si>
-    <t>(262001) (SF6 AC) AC ELECTRICAL DISTRIBUTION (G2.4.26) EMERGENCY PROCEDURES / PLAN Knowledge of facility protection requirements, including fire brigade and portable firefighting equipment usage (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(290002A2.01) Ability to (a) predict the impacts of the following on the (SF4 RVI) REACTOR VESSEL INTERNALS and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) LOCA </t>
-  </si>
-  <si>
-    <t>(234000A2.07) Ability to (a) predict the impacts of the following on the (SF8 FH) FUEL HANDLING and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Fuel transfer tube interlocks malfunction (Mark III)</t>
-  </si>
-  <si>
-    <t>(290003A2.01) Ability to (a) predict the impacts of the following on the (SF9 CRV) CONTROL ROOM VENTILATION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Automatic initiation/reconfiguration</t>
-  </si>
-  <si>
-    <t>(G2.1.34) CONDUCT OF OPERATIONS Knowledge of RCS or balance of plant chemistry controls, including parameters measured and reasons for the control (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.1.47) CONDUCT OF OPERATIONS Ability to direct nonlicensed personnel activities inside the control room (CFR: 41.10 / 43.5 / 45.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.44) EQUIPMENT CONTROL Ability to interpret control room indications to verify the status and operation of a system and understand how operator actions and directives affect plant and system conditions (CFR: 41.5 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.2.12) EQUIPMENT CONTROL Knowledge of surveillance procedures (CFR: 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
-  </si>
-  <si>
-    <t>(G2.4.6) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures major action categories (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.4.52) EMERGENCY PROCEDURES / PLAN Knowledge of the lines of authority during implementation of the emergency plan, emergency plan implementing procedures, emergency operating procedures, or severe accident guidelines (CFR: 41.10 / 45.13)</t>
+    <t>(G2.4.41) EMERGENCY PROCEDURES / PLAN: Knowledge of the emergency action level thresholds and classifications (CFR: 41.10 / 43.5 / 45.11).</t>
+  </si>
+  <si>
+    <t>(G2.4.19) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures layout, symbols, and icons (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>K2</t>
+  </si>
+  <si>
+    <t>K3</t>
   </si>
   <si>
     <t>G</t>
   </si>
   <si>
-    <t>K3</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
     <t>K1</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>K2</t>
-  </si>
-  <si>
     <t>K4</t>
   </si>
   <si>
+    <t>A3</t>
+  </si>
+  <si>
     <t>K5</t>
   </si>
   <si>
@@ -361,9 +364,6 @@
     <t>K6</t>
   </si>
   <si>
-    <t>A3</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -385,217 +385,217 @@
     <t>T</t>
   </si>
   <si>
+    <t>700000</t>
+  </si>
+  <si>
     <t>295004</t>
   </si>
   <si>
     <t>295030</t>
   </si>
   <si>
+    <t>295023</t>
+  </si>
+  <si>
+    <t>295038</t>
+  </si>
+  <si>
+    <t>295003</t>
+  </si>
+  <si>
     <t>600000</t>
   </si>
   <si>
+    <t>295001</t>
+  </si>
+  <si>
+    <t>295019</t>
+  </si>
+  <si>
+    <t>295025</t>
+  </si>
+  <si>
+    <t>295005</t>
+  </si>
+  <si>
+    <t>295031</t>
+  </si>
+  <si>
+    <t>295006</t>
+  </si>
+  <si>
     <t>295026</t>
   </si>
   <si>
+    <t>295024</t>
+  </si>
+  <si>
+    <t>295027</t>
+  </si>
+  <si>
+    <t>295037</t>
+  </si>
+  <si>
+    <t>295018</t>
+  </si>
+  <si>
+    <t>295016</t>
+  </si>
+  <si>
     <t>295021</t>
   </si>
   <si>
-    <t>295031</t>
-  </si>
-  <si>
-    <t>295005</t>
-  </si>
-  <si>
-    <t>295016</t>
-  </si>
-  <si>
-    <t>295003</t>
-  </si>
-  <si>
-    <t>295019</t>
-  </si>
-  <si>
-    <t>295038</t>
-  </si>
-  <si>
-    <t>295024</t>
-  </si>
-  <si>
-    <t>295037</t>
-  </si>
-  <si>
-    <t>295025</t>
-  </si>
-  <si>
-    <t>700000</t>
-  </si>
-  <si>
-    <t>295006</t>
-  </si>
-  <si>
-    <t>295023</t>
-  </si>
-  <si>
-    <t>295001</t>
-  </si>
-  <si>
-    <t>295018</t>
-  </si>
-  <si>
-    <t>295027</t>
-  </si>
-  <si>
-    <t>295035</t>
+    <t>295007</t>
+  </si>
+  <si>
+    <t>295011</t>
+  </si>
+  <si>
+    <t>295034</t>
   </si>
   <si>
     <t>295032</t>
   </si>
   <si>
-    <t>295020</t>
-  </si>
-  <si>
-    <t>295011</t>
-  </si>
-  <si>
-    <t>295034</t>
-  </si>
-  <si>
-    <t>295017</t>
+    <t>295002</t>
+  </si>
+  <si>
+    <t>295022</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>205000</t>
   </si>
   <si>
     <t>209002</t>
   </si>
   <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>262002</t>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>262001</t>
   </si>
   <si>
     <t>215005</t>
   </si>
   <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>212000</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
     <t>209001</t>
   </si>
   <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>239001</t>
-  </si>
-  <si>
-    <t>510001</t>
+    <t>290002</t>
+  </si>
+  <si>
+    <t>233000</t>
+  </si>
+  <si>
+    <t>202002</t>
+  </si>
+  <si>
+    <t>268000</t>
+  </si>
+  <si>
+    <t>259001</t>
+  </si>
+  <si>
+    <t>226001</t>
+  </si>
+  <si>
+    <t>223001</t>
   </si>
   <si>
     <t>271000</t>
   </si>
   <si>
-    <t>201005</t>
-  </si>
-  <si>
-    <t>215001</t>
-  </si>
-  <si>
-    <t>245000</t>
+    <t>290003</t>
   </si>
   <si>
     <t>201003</t>
   </si>
   <si>
-    <t>268000</t>
-  </si>
-  <si>
-    <t>202001</t>
+    <t>272000</t>
+  </si>
+  <si>
+    <t>292004</t>
+  </si>
+  <si>
+    <t>292008</t>
+  </si>
+  <si>
+    <t>292006</t>
+  </si>
+  <si>
+    <t>293007</t>
+  </si>
+  <si>
+    <t>293003</t>
+  </si>
+  <si>
+    <t>293009</t>
+  </si>
+  <si>
+    <t>295036</t>
+  </si>
+  <si>
+    <t>295010</t>
+  </si>
+  <si>
+    <t>295033</t>
   </si>
   <si>
     <t>290001</t>
   </si>
   <si>
-    <t>239003</t>
-  </si>
-  <si>
-    <t>292008</t>
-  </si>
-  <si>
-    <t>292007</t>
-  </si>
-  <si>
-    <t>292002</t>
-  </si>
-  <si>
-    <t>293010</t>
-  </si>
-  <si>
-    <t>293008</t>
-  </si>
-  <si>
-    <t>293005</t>
-  </si>
-  <si>
-    <t>295013</t>
-  </si>
-  <si>
-    <t>500000</t>
-  </si>
-  <si>
-    <t>295033</t>
-  </si>
-  <si>
-    <t>290002</t>
-  </si>
-  <si>
-    <t>234000</t>
-  </si>
-  <si>
-    <t>290003</t>
+    <t>286000</t>
+  </si>
+  <si>
+    <t>230000</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1375,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="D25" t="s">
         <v>105</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,7 +1426,7 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>4.4</v>
+        <v>3.7</v>
       </c>
       <c r="D28" t="s">
         <v>111</v>
@@ -1443,10 +1443,10 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="D29" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E29" t="s">
         <v>150</v>
@@ -1463,7 +1463,7 @@
         <v>3.1</v>
       </c>
       <c r="D30" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E30" t="s">
         <v>151</v>
@@ -1477,10 +1477,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="D31" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1497,7 +1497,7 @@
         <v>3.3</v>
       </c>
       <c r="D32" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1511,10 +1511,10 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="D33" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E33" t="s">
         <v>154</v>
@@ -1528,10 +1528,10 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="D34" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E34" t="s">
         <v>155</v>
@@ -1545,10 +1545,10 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="D35" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E35" t="s">
         <v>156</v>
@@ -1562,10 +1562,10 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="D36" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1579,10 +1579,10 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>4.3</v>
+        <v>3.4</v>
       </c>
       <c r="D37" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E37" t="s">
         <v>158</v>
@@ -1596,10 +1596,10 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="D38" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E38" t="s">
         <v>159</v>
@@ -1613,7 +1613,7 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>2.7</v>
+        <v>3.9</v>
       </c>
       <c r="D39" t="s">
         <v>111</v>
@@ -1630,10 +1630,10 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="D40" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E40" t="s">
         <v>161</v>
@@ -1647,10 +1647,10 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="D41" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E41" t="s">
         <v>162</v>
@@ -1664,10 +1664,10 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="D42" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1684,7 +1684,7 @@
         <v>3.9</v>
       </c>
       <c r="D43" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1698,10 +1698,10 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="D44" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E44" t="s">
         <v>165</v>
@@ -1715,10 +1715,10 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="D45" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E45" t="s">
         <v>166</v>
@@ -1732,10 +1732,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="D46" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1749,10 +1749,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="D47" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1766,10 +1766,10 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="D48" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E48" t="s">
         <v>169</v>
@@ -1783,10 +1783,10 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="D49" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E49" t="s">
         <v>170</v>
@@ -1800,7 +1800,7 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="s">
         <v>111</v>
@@ -1817,10 +1817,10 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="D51" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E51" t="s">
         <v>150</v>
@@ -1834,10 +1834,10 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="D52" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -1851,10 +1851,10 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>3.6</v>
+        <v>4.4</v>
       </c>
       <c r="D53" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1868,10 +1868,10 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="D54" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E54" t="s">
         <v>171</v>
@@ -1888,7 +1888,7 @@
         <v>3.3</v>
       </c>
       <c r="D55" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E55" t="s">
         <v>172</v>
@@ -1902,7 +1902,7 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="D56" t="s">
         <v>111</v>
@@ -1919,10 +1919,10 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="D57" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E57" t="s">
         <v>174</v>
@@ -1936,10 +1936,10 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="D58" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E58" t="s">
         <v>175</v>
@@ -1953,10 +1953,10 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="D59" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1973,7 +1973,7 @@
         <v>3.6</v>
       </c>
       <c r="D60" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1987,10 +1987,10 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="D61" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E61" t="s">
         <v>178</v>
@@ -2004,10 +2004,10 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="D62" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E62" t="s">
         <v>179</v>
@@ -2021,10 +2021,10 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D63" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
@@ -2038,10 +2038,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="D64" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2123,7 +2123,7 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="D69" t="s">
         <v>119</v>
@@ -2140,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="D70" t="s">
         <v>120</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>3.7</v>
+        <v>2.9</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="D74" t="s">
         <v>122</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
@@ -2242,7 +2242,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="D76" t="s">
         <v>122</v>
@@ -2276,10 +2276,10 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="D78" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E78" t="s">
         <v>124</v>
@@ -2293,7 +2293,7 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="D79" t="s">
         <v>105</v>
@@ -2310,10 +2310,10 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="D80" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E80" t="s">
         <v>126</v>
@@ -2327,7 +2327,7 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="D81" t="s">
         <v>105</v>
@@ -2344,10 +2344,10 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="D82" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E82" t="s">
         <v>128</v>
@@ -2361,7 +2361,7 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>4.6</v>
+        <v>3.6</v>
       </c>
       <c r="D83" t="s">
         <v>105</v>
@@ -2378,7 +2378,7 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="D84" t="s">
         <v>105</v>
@@ -2395,10 +2395,10 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="D85" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E85" t="s">
         <v>189</v>
@@ -2412,7 +2412,7 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="D86" t="s">
         <v>105</v>
@@ -2429,7 +2429,7 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="D87" t="s">
         <v>105</v>
@@ -2446,10 +2446,10 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="D88" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E88" t="s">
         <v>154</v>
@@ -2463,7 +2463,7 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="D89" t="s">
         <v>105</v>
@@ -2480,10 +2480,10 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="D90" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E90" t="s">
         <v>156</v>
@@ -2497,7 +2497,7 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="D91" t="s">
         <v>105</v>
@@ -2514,10 +2514,10 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="D92" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E92" t="s">
         <v>191</v>
@@ -2534,7 +2534,7 @@
         <v>3.3</v>
       </c>
       <c r="D93" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E93" t="s">
         <v>192</v>
@@ -2548,10 +2548,10 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="D94" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E94" t="s">
         <v>193</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>3.2</v>
+        <v>4.4</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2633,7 +2633,7 @@
         <v>102</v>
       </c>
       <c r="C99">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="D99" t="s">
         <v>119</v>
@@ -2650,7 +2650,7 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="D100" t="s">
         <v>120</v>
@@ -2667,7 +2667,7 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="D101" t="s">
         <v>120</v>
